--- a/biology/Botanique/École_nationale_supérieure_des_technologies_et_industries_du_bois/École_nationale_supérieure_des_technologies_et_industries_du_bois.xlsx
+++ b/biology/Botanique/École_nationale_supérieure_des_technologies_et_industries_du_bois/École_nationale_supérieure_des_technologies_et_industries_du_bois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cole_nationale_sup%C3%A9rieure_des_technologies_et_industries_du_bois</t>
+          <t>École_nationale_supérieure_des_technologies_et_industries_du_bois</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'École nationale supérieure des technologies et industries du bois (ENSTIB) est l'une des 204 écoles d'ingénieurs françaises accréditées à délivrer un diplôme d'ingénieur[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'École nationale supérieure des technologies et industries du bois (ENSTIB) est l'une des 204 écoles d'ingénieurs françaises accréditées à délivrer un diplôme d'ingénieur.
 Elle est située à Épinal, dans les Vosges (88) sur le campus bois. C’est une composante de l’université de Lorraine qui fait partie du collégium Lorraine-INP.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cole_nationale_sup%C3%A9rieure_des_technologies_et_industries_du_bois</t>
+          <t>École_nationale_supérieure_des_technologies_et_industries_du_bois</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,63 +526,174 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Description de l'ENSTIB
-L'enseignement de l’école repose sur les besoins du secteur du bois, en s'appuyant sur la recherche. Les enseignants-chercheurs de l’école sont rattachés pour la recherche à l'un des trois laboratoires (LERMAB, CRAN, IJL) et au centre de transfert de technologies CRITT Bois[2].
+          <t>Description de l'ENSTIB</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'enseignement de l’école repose sur les besoins du secteur du bois, en s'appuyant sur la recherche. Les enseignants-chercheurs de l’école sont rattachés pour la recherche à l'un des trois laboratoires (LERMAB, CRAN, IJL) et au centre de transfert de technologies CRITT Bois.
 Quatre secteurs d'activités sont privilégiés au sein de l'école :
 construction — conception ;
 énergie et environnement ;
 production et logistique ;
 matériaux fibreux.
-L'école possède un parc de machines important pour tout ce qui concerne l'usinage bois, une halle habitat-énergie et une halle construction avec une dalle d'essai[3].
-L'ensemble des activités dont l'école compose le Campus bois[4].
-Historique
-1980 : Création de la maîtrise de sciences et techniques (MST) du bois situé dans les locaux de la faculté des sciences à Épinal ;
-1985 : Création de l'École supérieure des sciences et des technologies des industries du bois (ESSTIB)[5], l’Éducation nationale acquiert la halle de technologie rue du Merle Blanc à Épinal ; 
+L'école possède un parc de machines important pour tout ce qui concerne l'usinage bois, une halle habitat-énergie et une halle construction avec une dalle d'essai.
+L'ensemble des activités dont l'école compose le Campus bois.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>École_nationale_supérieure_des_technologies_et_industries_du_bois</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cole_nationale_sup%C3%A9rieure_des_technologies_et_industries_du_bois</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Présentation générale</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1980 : Création de la maîtrise de sciences et techniques (MST) du bois situé dans les locaux de la faculté des sciences à Épinal ;
+1985 : Création de l'École supérieure des sciences et des technologies des industries du bois (ESSTIB), l’Éducation nationale acquiert la halle de technologie rue du Merle Blanc à Épinal ; 
 1986 : Création du centre régional d'innovation et de transfert de technologies ;
 1988 : Sortie de la première promotion d'ingénieurs diplômés ;
 1992 : L'ensemble de la formation déménage dans les locaux de la halle de technologie ;
 1994 : L'ESSTIB devient l'École nationale supérieure des technologies et industries du bois (ENSTIB) ;
 2001 : Construction du centre de recherche. L'ENSTIB est admise à la Conférence des grandes écoles ;
-2005 : Construction du campus Fibres[6] et agrandissement de l'ENSTIB.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>%C3%89cole_nationale_sup%C3%A9rieure_des_technologies_et_industries_du_bois</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cole_nationale_sup%C3%A9rieure_des_technologies_et_industries_du_bois</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+2005 : Construction du campus Fibres et agrandissement de l'ENSTIB.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>École_nationale_supérieure_des_technologies_et_industries_du_bois</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cole_nationale_sup%C3%A9rieure_des_technologies_et_industries_du_bois</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Formations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ENSTIB fait partie de l’université de Lorraine[7]. Elle propose une offre de formation complète d'ingénieurs[8], de licence, de master, de mastère et de doctorat[9].
-Cycle ingénieur
-Pour accéder à cette formation, il faut être titulaire d'un DUT, un BTS, d'une 2e ou 3e année de licence (science de la matière, science du vivant, sciences et techniques industrielles…) ou avoir effectué une classe préparatoire (MP, PSI, PT, PC, BCPST…). Le parcours se déroule en trois ans.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ENSTIB fait partie de l’université de Lorraine. Elle propose une offre de formation complète d'ingénieurs, de licence, de master, de mastère et de doctorat.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>École_nationale_supérieure_des_technologies_et_industries_du_bois</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cole_nationale_sup%C3%A9rieure_des_technologies_et_industries_du_bois</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Formations</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cycle ingénieur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour accéder à cette formation, il faut être titulaire d'un DUT, un BTS, d'une 2e ou 3e année de licence (science de la matière, science du vivant, sciences et techniques industrielles…) ou avoir effectué une classe préparatoire (MP, PSI, PT, PC, BCPST…). Le parcours se déroule en trois ans.
 On postule à l'école par concours pour les classes préparatoires et par sélection sur dossier pour les BTS, DUT, 2e ou 3e année de licence, classes préparatoires adaptation technicien supérieur et 1re année de master (admissible en 2e année).
 La formation se compose de cours théoriques et de trois stages, dont un à l'étranger.
-Les enseignements de la 1re année se divisent entre enseignements scientifiques et technologiques, sciences économiques, humaines et sociales et enfin stage et prérequis. La 2e et la 3e année se composent d'enseignements scientifiques et technologiques, sciences économiques, humaines et sociales, d'enseignements d'orientation (construction – conception, énergie et environnement, production et logistique ou matériaux fibreux), de stages et d'un projet de fin d'études[10].
-Dans cet article du Monde, une présentation des compétences des ingénieurs ENSTIB qualifiés de "couteaux suisse du bois" par le journaliste [11]
-Licence Professionnelle des Technologies et Industries du Bois (2 parcours)
-Parcours Ameublement Bois
-La formation initiale ou par apprentissage s’adresse aux étudiants titulaires :
+Les enseignements de la 1re année se divisent entre enseignements scientifiques et technologiques, sciences économiques, humaines et sociales et enfin stage et prérequis. La 2e et la 3e année se composent d'enseignements scientifiques et technologiques, sciences économiques, humaines et sociales, d'enseignements d'orientation (construction – conception, énergie et environnement, production et logistique ou matériaux fibreux), de stages et d'un projet de fin d'études.
+Dans cet article du Monde, une présentation des compétences des ingénieurs ENSTIB qualifiés de "couteaux suisse du bois" par le journaliste 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>École_nationale_supérieure_des_technologies_et_industries_du_bois</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cole_nationale_sup%C3%A9rieure_des_technologies_et_industries_du_bois</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Formations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Parcours Ameublement Bois</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La formation initiale ou par apprentissage s’adresse aux étudiants titulaires :
 • d’un BTS DRB Développement Réalisations Bois
 • d’un BTS ERA Études et Réalisations d’Agencement
 • d’un DMA (Diplôme des Métiers d’Art)
@@ -586,8 +709,43 @@
 projet tutoré ;
 stage industriel (cinq semaines au 1er semestre et onze au 2e).
 Il est possible d'intégrer la spécialisation "expertise bois" au second semestre, qui est une passerelle pour la 1ère année Ingénieur(e) de l'ENSTIB.
-Parcours Structures Bois
-Cette formation peut se faire en formation initiale ou en formation par apprentissage.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>École_nationale_supérieure_des_technologies_et_industries_du_bois</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cole_nationale_sup%C3%A9rieure_des_technologies_et_industries_du_bois</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Formations</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Parcours Structures Bois</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette formation peut se faire en formation initiale ou en formation par apprentissage.
 La formation initiale ou par apprentissage s’adresse aux étudiants titulaires :
 • d’un BTS : Système Constructif Bois et Habitat, Productique Génie Mécanique, Développement réalisation bois
 • d’un DUT Génie Mécanique et Productique
@@ -601,8 +759,43 @@
 projet tutoré ;
 stage industriel (cinq semaines au 1er semestre et onze au 2e).
 Il est possible d'intégrer la spécialisation "expertise bois" au second semestre, qui est une passerelle pour la 1ère année Ingénieur(e) de l'ENSTIB.
-Master 2 Génie civil « architecture bois construction »
-Pour intégrer cette formation, il faut avoir un master 1 « Génie civil – parcours constructions, matériaux, bois » ou d'autres masters 1 dans le domaine de l'architecture, le génie civil, la mécanique. Les architectes et ingénieurs diplômés peuvent également postuler au master, ainsi que les cadres en formation continue avec validation des acquis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>École_nationale_supérieure_des_technologies_et_industries_du_bois</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cole_nationale_sup%C3%A9rieure_des_technologies_et_industries_du_bois</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Formations</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Master 2 Génie civil « architecture bois construction »</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Pour intégrer cette formation, il faut avoir un master 1 « Génie civil – parcours constructions, matériaux, bois » ou d'autres masters 1 dans le domaine de l'architecture, le génie civil, la mécanique. Les architectes et ingénieurs diplômés peuvent également postuler au master, ainsi que les cadres en formation continue avec validation des acquis.
 L'année se subdivise en 9 unités d'enseignement :
 matériaux et caractéristiques ;
 technologies du bois ;
@@ -612,10 +805,44 @@
 projets et prescriptions ;
 projets et réalisations ;
 anglais ;
-stage (environ 6 mois)[12].
-Mastère spécialisé « conception et hautes études des structures bois »
-Pour postuler à cette formation il faut être en dernière année d'école d'ingénieurs ou en dernière année de maîtrise universitaire scientifique.
-Le programme de ce mastère comprend deux périodes distinctes : la 1re période se compose de 465 heures de cours et se termine en avril tandis que la 2e période débute en mai et comprend 328 heures de cours[13].
+stage (environ 6 mois).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>École_nationale_supérieure_des_technologies_et_industries_du_bois</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cole_nationale_sup%C3%A9rieure_des_technologies_et_industries_du_bois</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Formations</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Mastère spécialisé « conception et hautes études des structures bois »</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour postuler à cette formation il faut être en dernière année d'école d'ingénieurs ou en dernière année de maîtrise universitaire scientifique.
+Le programme de ce mastère comprend deux périodes distinctes : la 1re période se compose de 465 heures de cours et se termine en avril tandis que la 2e période débute en mai et comprend 328 heures de cours.
 			Zone de prototypage
 			Halle industrielle
 			Établis de menuiserie
@@ -625,95 +852,174 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%89cole_nationale_sup%C3%A9rieure_des_technologies_et_industries_du_bois</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cole_nationale_sup%C3%A9rieure_des_technologies_et_industries_du_bois</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>École_nationale_supérieure_des_technologies_et_industries_du_bois</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cole_nationale_sup%C3%A9rieure_des_technologies_et_industries_du_bois</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Événements liés à l'ENSTIB</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>%C3%89cole_nationale_sup%C3%A9rieure_des_technologies_et_industries_du_bois</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cole_nationale_sup%C3%A9rieure_des_technologies_et_industries_du_bois</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>École_nationale_supérieure_des_technologies_et_industries_du_bois</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cole_nationale_sup%C3%A9rieure_des_technologies_et_industries_du_bois</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Vie étudiante</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Association des étudiants (ADE)
-L'ADE a pour but de réaliser des animations comme le gala de l'ENSTIB, le rassemblement « Inter Agros » ou les Montgolfiades. Au sein de cette association, le bureau des élèves (BDE) organise entre autres les manifestations d'accueil des nouveaux étudiants.
-Bureau des sports (BDS)
-Le BDS propose de nombreuses activités sportives telles que football, rugby, hand, badminton, escalade, aviron, etc. Il organise aussi des événements plus ponctuels comme les « 12h de l’Étudiant », des week-ends au ski et diverses sorties.
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Association des étudiants (ADE)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ADE a pour but de réaliser des animations comme le gala de l'ENSTIB, le rassemblement « Inter Agros » ou les Montgolfiades. Au sein de cette association, le bureau des élèves (BDE) organise entre autres les manifestations d'accueil des nouveaux étudiants.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>%C3%89cole_nationale_sup%C3%A9rieure_des_technologies_et_industries_du_bois</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cole_nationale_sup%C3%A9rieure_des_technologies_et_industries_du_bois</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>École_nationale_supérieure_des_technologies_et_industries_du_bois</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cole_nationale_sup%C3%A9rieure_des_technologies_et_industries_du_bois</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Vie étudiante</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Bureau des sports (BDS)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le BDS propose de nombreuses activités sportives telles que football, rugby, hand, badminton, escalade, aviron, etc. Il organise aussi des événements plus ponctuels comme les « 12h de l’Étudiant », des week-ends au ski et diverses sorties.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>École_nationale_supérieure_des_technologies_et_industries_du_bois</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cole_nationale_sup%C3%A9rieure_des_technologies_et_industries_du_bois</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Recherche</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Intégrés au campus Fibres, les laboratoires et centres de recherches travaillent sur de nombreuses études[2].
-Laboratoires
-Le Laboratoire d’études et de recherche sur le matériau bois (LERMAB) est rattaché à l'Université de Lorraine et à l'Institut national de la recherche agronomique. Il travaille en particulier sur le bois en tant que matériau, source d'énergie et matière première pour l'industrie chimique.
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Intégrés au campus Fibres, les laboratoires et centres de recherches travaillent sur de nombreuses études.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>École_nationale_supérieure_des_technologies_et_industries_du_bois</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cole_nationale_sup%C3%A9rieure_des_technologies_et_industries_du_bois</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Recherche</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Laboratoires</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Laboratoire d’études et de recherche sur le matériau bois (LERMAB) est rattaché à l'Université de Lorraine et à l'Institut national de la recherche agronomique. Il travaille en particulier sur le bois en tant que matériau, source d'énergie et matière première pour l'industrie chimique.
 Le Centre de recherche en automatique de Nancy (CRAN) est une unité mixte de recherche commune à l'Université de Lorraine et au Centre national de la recherche scientifique (CNRS). La science de la modélisation, de l'analyse, de la commande et de la supervision des systèmes dynamiques est le principal domaine d'étude de ce laboratoire.
 L'Institut Jean Lamour (IJL), créé en 2009 : ses recherches portent sur six thèmes :
 Plasmas chauds et froids – fusion thermonucléaire, Matériaux artificiels nanostructurés, Interfaces avancées pour l’énergie, Métallurgie, Théorie, modélisation, simulation, Matériaux et vivant.
@@ -721,31 +1027,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>%C3%89cole_nationale_sup%C3%A9rieure_des_technologies_et_industries_du_bois</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cole_nationale_sup%C3%A9rieure_des_technologies_et_industries_du_bois</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>École_nationale_supérieure_des_technologies_et_industries_du_bois</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cole_nationale_sup%C3%A9rieure_des_technologies_et_industries_du_bois</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Personnalités liées à l'ENSTIB</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Jean-Luc Sandoz, promotion 1983, fondateur et dirigeant de CBS-Lifteam
 Pascal Triboulot, enseignant dès 1985 et directeur de l'école de 1995 à 2017</t>
